--- a/robots_report.xlsx
+++ b/robots_report.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="R2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="S1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +414,173 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/robots_report.xlsx
+++ b/robots_report.xlsx
@@ -7,8 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="R2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="S1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="X3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Y7" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="E4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="S2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="G8" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Y9" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Q7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Z5" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,61 +449,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>Z5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>N8</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>J4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G0</t>
+          <t>X2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M7</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -505,6 +617,147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Y7</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Y7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Y7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Y7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Y7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Y7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Y7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Y6</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -538,46 +791,742 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>J5</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>K6</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>J2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>U8</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>W5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Y9</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Y9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Y9</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X6</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N9</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Количество за неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Z5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Z5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X9</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Z5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Z5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
